--- a/Code/Results/Cases/Case_1_227/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_227/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.248744091242173</v>
+        <v>7.846393942920296</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.83290539182781</v>
+        <v>5.301539641929957</v>
       </c>
       <c r="E2">
-        <v>8.872696292749636</v>
+        <v>12.08062543287042</v>
       </c>
       <c r="F2">
-        <v>43.91268513073317</v>
+        <v>51.94936872646886</v>
       </c>
       <c r="G2">
-        <v>2.106127892202935</v>
+        <v>3.753220566446671</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.884790703279127</v>
+        <v>10.62410618641181</v>
       </c>
       <c r="K2">
-        <v>22.60659739302544</v>
+        <v>22.00535953010879</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.93528099550817</v>
+        <v>22.09022614495332</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.889147394550547</v>
+        <v>7.778037910281712</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.726223263666826</v>
+        <v>5.302320742851191</v>
       </c>
       <c r="E3">
-        <v>8.515416729742485</v>
+        <v>12.0588024646656</v>
       </c>
       <c r="F3">
-        <v>42.29016971940809</v>
+        <v>51.77238289265132</v>
       </c>
       <c r="G3">
-        <v>2.118845790180009</v>
+        <v>3.757604127648492</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.758733636165039</v>
+        <v>10.63435391269296</v>
       </c>
       <c r="K3">
-        <v>21.21449548079138</v>
+        <v>21.7379681992359</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.13870483001457</v>
+        <v>22.14649415479193</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.662793467154477</v>
+        <v>7.737673882527902</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.659887114466581</v>
+        <v>5.30357668652882</v>
       </c>
       <c r="E4">
-        <v>8.296520202577648</v>
+        <v>12.04810920929585</v>
       </c>
       <c r="F4">
-        <v>41.31282116260564</v>
+        <v>51.67682606321051</v>
       </c>
       <c r="G4">
-        <v>2.126804337435247</v>
+        <v>3.76043281157938</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.685785505854745</v>
+        <v>10.64255097331307</v>
       </c>
       <c r="K4">
-        <v>20.33595256009568</v>
+        <v>21.57887887888087</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.2679995244718</v>
+        <v>22.18301140341903</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.569272430942649</v>
+        <v>7.721646691400457</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.632679837613926</v>
+        <v>5.304284450167593</v>
       </c>
       <c r="E5">
-        <v>8.207518219025864</v>
+        <v>12.0444342314277</v>
       </c>
       <c r="F5">
-        <v>40.91945214871371</v>
+        <v>51.64119857604678</v>
       </c>
       <c r="G5">
-        <v>2.130088976064971</v>
+        <v>3.761620155589489</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.657151440546814</v>
+        <v>10.64636963171163</v>
       </c>
       <c r="K5">
-        <v>19.97213732545591</v>
+        <v>21.51540260356422</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.32177667600675</v>
+        <v>22.19838765909616</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.553669894890906</v>
+        <v>7.719011338292184</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.628152642423104</v>
+        <v>5.304413829629319</v>
       </c>
       <c r="E6">
-        <v>8.192754251430557</v>
+        <v>12.0438652832399</v>
       </c>
       <c r="F6">
-        <v>40.85443556530804</v>
+        <v>51.63548310337324</v>
       </c>
       <c r="G6">
-        <v>2.130636997537405</v>
+        <v>3.761819409044581</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.652462026808176</v>
+        <v>10.64703258131434</v>
       </c>
       <c r="K6">
-        <v>19.91138272830488</v>
+        <v>21.50494629041052</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.33077168626754</v>
+        <v>22.20097078840556</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.661537220644223</v>
+        <v>7.737456005241769</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.659520845828919</v>
+        <v>5.303585437308387</v>
       </c>
       <c r="E7">
-        <v>8.295318962337179</v>
+        <v>12.04805688099631</v>
       </c>
       <c r="F7">
-        <v>41.30749592953673</v>
+        <v>51.67633214872415</v>
       </c>
       <c r="G7">
-        <v>2.126848462521149</v>
+        <v>3.760448684104177</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.685394946012238</v>
+        <v>10.64260053754389</v>
       </c>
       <c r="K7">
-        <v>20.33106920692233</v>
+        <v>21.57801723836799</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.26872039259454</v>
+        <v>22.18321676784039</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.125973549997143</v>
+        <v>7.822501967700873</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.7963135290432</v>
+        <v>5.3016482923838</v>
       </c>
       <c r="E8">
-        <v>8.749451176758951</v>
+        <v>12.07254065942579</v>
       </c>
       <c r="F8">
-        <v>43.34940181681772</v>
+        <v>51.88563274813158</v>
       </c>
       <c r="G8">
-        <v>2.110484364843364</v>
+        <v>3.754703636826991</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.840385952375848</v>
+        <v>10.62724383780338</v>
       </c>
       <c r="K8">
-        <v>22.1316166383536</v>
+        <v>21.91215185079978</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.00449927423379</v>
+        <v>22.1092189154784</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.988485233430244</v>
+        <v>8.001225602263949</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.056698885676869</v>
+        <v>5.303975494583981</v>
       </c>
       <c r="E9">
-        <v>9.641168691282417</v>
+        <v>12.14190808251408</v>
       </c>
       <c r="F9">
-        <v>47.49993936388528</v>
+        <v>52.39926709205334</v>
       </c>
       <c r="G9">
-        <v>2.079388965816135</v>
+        <v>3.744519415204079</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.180962173447069</v>
+        <v>10.61227264386062</v>
       </c>
       <c r="K9">
-        <v>25.77530536988957</v>
+        <v>22.60439249953157</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.52215872562126</v>
+        <v>21.97971887317831</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.638514907804726</v>
+        <v>8.138703665356914</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.241934050554737</v>
+        <v>5.309371860153774</v>
       </c>
       <c r="E10">
-        <v>10.29514984526943</v>
+        <v>12.20569992693699</v>
       </c>
       <c r="F10">
-        <v>50.6410364568289</v>
+        <v>52.83815285714228</v>
       </c>
       <c r="G10">
-        <v>2.056842122102766</v>
+        <v>3.737687454698942</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.455696192071798</v>
+        <v>10.61053905229597</v>
       </c>
       <c r="K10">
-        <v>28.39233001682067</v>
+        <v>23.13087411600136</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.19140085081187</v>
+        <v>21.89407749968791</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.95747961959523</v>
+        <v>8.202339912286906</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.324735508962781</v>
+        <v>5.312616015878035</v>
       </c>
       <c r="E11">
-        <v>10.5925262773296</v>
+        <v>12.23745359240382</v>
       </c>
       <c r="F11">
-        <v>52.09291374311758</v>
+        <v>53.05079448607989</v>
       </c>
       <c r="G11">
-        <v>2.046568459039225</v>
+        <v>3.734718693310946</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.58662418350327</v>
+        <v>10.61176715497323</v>
       </c>
       <c r="K11">
-        <v>29.54566331722747</v>
+        <v>23.37325792008862</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.04663966661451</v>
+        <v>21.85717796369033</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.076035459001732</v>
+        <v>8.226574075508813</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.35587580855878</v>
+        <v>5.313956938535195</v>
       </c>
       <c r="E12">
-        <v>10.70516463847465</v>
+        <v>12.24986573550107</v>
       </c>
       <c r="F12">
-        <v>52.64645300981437</v>
+        <v>53.13314654039295</v>
       </c>
       <c r="G12">
-        <v>2.04266758770872</v>
+        <v>3.733614356718241</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.637124927308831</v>
+        <v>10.61252232986145</v>
       </c>
       <c r="K12">
-        <v>29.97755053422001</v>
+        <v>23.46537256341244</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.99270896093233</v>
+        <v>21.84350112922971</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.050600506316497</v>
+        <v>8.221349082366606</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.349178740421761</v>
+        <v>5.313663164105209</v>
       </c>
       <c r="E13">
-        <v>10.6809036052442</v>
+        <v>12.24717540754302</v>
       </c>
       <c r="F13">
-        <v>52.52706287017696</v>
+        <v>53.11532984647588</v>
       </c>
       <c r="G13">
-        <v>2.043508316741134</v>
+        <v>3.733851313882477</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.626206510417466</v>
+        <v>10.61234678593677</v>
       </c>
       <c r="K13">
-        <v>29.88474314307117</v>
+        <v>23.44552074087472</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.00428318950376</v>
+        <v>21.84643350361039</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.967277607069672</v>
+        <v>8.204331057559328</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.327301746814739</v>
+        <v>5.312724087440057</v>
       </c>
       <c r="E14">
-        <v>10.60179215402724</v>
+        <v>12.23846700974578</v>
       </c>
       <c r="F14">
-        <v>52.13837551763794</v>
+        <v>53.05753321139684</v>
       </c>
       <c r="G14">
-        <v>2.04624779208904</v>
+        <v>3.734627441462395</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.59076001859367</v>
+        <v>10.61182346907395</v>
       </c>
       <c r="K14">
-        <v>29.58128914397983</v>
+        <v>23.38083013765049</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.04218452790773</v>
+        <v>21.85604682484821</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.915951419444216</v>
+        <v>8.193924171410412</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.313873464160809</v>
+        <v>5.312163484970449</v>
       </c>
       <c r="E15">
-        <v>10.55333972361164</v>
+        <v>12.23318318512904</v>
       </c>
       <c r="F15">
-        <v>51.90079719085153</v>
+        <v>53.02236812329119</v>
       </c>
       <c r="G15">
-        <v>2.047924178269364</v>
+        <v>3.735105425440686</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.569170185309623</v>
+        <v>10.61154070553976</v>
       </c>
       <c r="K15">
-        <v>29.39479845691885</v>
+        <v>23.34124561505334</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.06551801805823</v>
+        <v>21.86197384210299</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.617354625398143</v>
+        <v>8.134565144778747</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.236492810344636</v>
+        <v>5.309175639739943</v>
       </c>
       <c r="E16">
-        <v>10.2757163254295</v>
+        <v>12.20367931703229</v>
       </c>
       <c r="F16">
-        <v>50.54664881660161</v>
+        <v>52.82451439483259</v>
       </c>
       <c r="G16">
-        <v>2.057512531303565</v>
+        <v>3.737884258115799</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.447264738707303</v>
+        <v>10.61049938767161</v>
       </c>
       <c r="K16">
-        <v>28.31624911211859</v>
+        <v>23.1150844698678</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.20098145197023</v>
+        <v>21.89653041568191</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.430141690629886</v>
+        <v>8.098416146464727</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.188642334756456</v>
+        <v>5.307544112599627</v>
       </c>
       <c r="E17">
-        <v>10.10539461424973</v>
+        <v>12.18627626917701</v>
       </c>
       <c r="F17">
-        <v>49.72206568845149</v>
+        <v>52.70643823342078</v>
       </c>
       <c r="G17">
-        <v>2.063385002471203</v>
+        <v>3.739624518613049</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.374045781928524</v>
+        <v>10.61037723106682</v>
       </c>
       <c r="K17">
-        <v>27.64539849611925</v>
+        <v>22.9770195747848</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.28558714846476</v>
+        <v>21.91825722456613</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.327560354940784</v>
+        <v>8.077728711783346</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.160982170963632</v>
+        <v>5.306680063783091</v>
       </c>
       <c r="E18">
-        <v>10.00741388127824</v>
+        <v>12.17652423763012</v>
       </c>
       <c r="F18">
-        <v>49.24991350577688</v>
+        <v>52.63974920019425</v>
       </c>
       <c r="G18">
-        <v>2.06676164011689</v>
+        <v>3.740638574399422</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.332487530942182</v>
+        <v>10.61049679511676</v>
       </c>
       <c r="K18">
-        <v>27.25601115713601</v>
+        <v>22.89788491079437</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.33478192110329</v>
+        <v>21.93094771890167</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.297163822198424</v>
+        <v>8.070742897379574</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.151593484961648</v>
+        <v>5.306400315275601</v>
       </c>
       <c r="E19">
-        <v>9.974235625405543</v>
+        <v>12.17326679307799</v>
       </c>
       <c r="F19">
-        <v>49.09040551973273</v>
+        <v>52.61738099985052</v>
       </c>
       <c r="G19">
-        <v>2.067904955207576</v>
+        <v>3.740984171094016</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.318510242454273</v>
+        <v>10.61056987427026</v>
       </c>
       <c r="K19">
-        <v>27.12355109172432</v>
+        <v>22.8711414048685</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.35152797983765</v>
+        <v>21.93527778600107</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.450225713668342</v>
+        <v>8.102253605856594</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.193750418422361</v>
+        <v>5.307710102810117</v>
       </c>
       <c r="E20">
-        <v>10.12352709561857</v>
+        <v>12.18810221615754</v>
       </c>
       <c r="F20">
-        <v>49.8096212908724</v>
+        <v>52.71888110292392</v>
       </c>
       <c r="G20">
-        <v>2.06276003092628</v>
+        <v>3.739437909702349</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.381782159841807</v>
+        <v>10.6103705873649</v>
       </c>
       <c r="K20">
-        <v>27.71717393094165</v>
+        <v>22.99168881355248</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.27652525225531</v>
+        <v>21.91592430950401</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.991811576173991</v>
+        <v>8.209326128783257</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.333733382100248</v>
+        <v>5.312996874488801</v>
       </c>
       <c r="E21">
-        <v>10.62502780521584</v>
+        <v>12.24101440106839</v>
       </c>
       <c r="F21">
-        <v>52.25243635185655</v>
+        <v>53.07446016321287</v>
       </c>
       <c r="G21">
-        <v>2.045443495861571</v>
+        <v>3.734398935840836</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.601145913900309</v>
+        <v>10.61196930593362</v>
       </c>
       <c r="K21">
-        <v>29.67054839405586</v>
+        <v>23.39982308057626</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.03102728659759</v>
+        <v>21.85321511898557</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.332806855789711</v>
+        <v>8.280089977094025</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.423971084369628</v>
+        <v>5.31710688456004</v>
       </c>
       <c r="E22">
-        <v>10.95299851184094</v>
+        <v>12.27785258034132</v>
       </c>
       <c r="F22">
-        <v>53.87112809858233</v>
+        <v>53.31749379475459</v>
       </c>
       <c r="G22">
-        <v>2.034060482945862</v>
+        <v>3.731221422456642</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.749924272375357</v>
+        <v>10.61470515239826</v>
       </c>
       <c r="K22">
-        <v>30.91918221618815</v>
+        <v>23.66844206429492</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.87579581046199</v>
+        <v>21.81395770566842</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.151976825692088</v>
+        <v>8.242257097457797</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.375923519869606</v>
+        <v>5.314853749217458</v>
       </c>
       <c r="E23">
-        <v>10.77791109891795</v>
+        <v>12.25798678394567</v>
       </c>
       <c r="F23">
-        <v>53.00497797617972</v>
+        <v>53.18682206891645</v>
       </c>
       <c r="G23">
-        <v>2.040144815687027</v>
+        <v>3.732906775815116</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.66999745425661</v>
+        <v>10.61309025125156</v>
       </c>
       <c r="K23">
-        <v>30.25514165710163</v>
+        <v>23.52493109218939</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.95814167186498</v>
+        <v>21.83475208910702</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.441150556224878</v>
+        <v>8.100518392623407</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.191441521472329</v>
+        <v>5.307634828254923</v>
       </c>
       <c r="E24">
-        <v>10.11532959227826</v>
+        <v>12.18727591641723</v>
       </c>
       <c r="F24">
-        <v>49.77003147951354</v>
+        <v>52.71325195804916</v>
       </c>
       <c r="G24">
-        <v>2.063042578493676</v>
+        <v>3.739522233353757</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.378282877650946</v>
+        <v>10.61037299982862</v>
       </c>
       <c r="K24">
-        <v>27.68473583720813</v>
+        <v>22.98505609452384</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.2806204153763</v>
+        <v>21.91697839913085</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.760814877608105</v>
+        <v>7.951710099707321</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.987252953859236</v>
+        <v>5.302694831651428</v>
       </c>
       <c r="E25">
-        <v>9.400089877718411</v>
+        <v>12.12087361019694</v>
       </c>
       <c r="F25">
-        <v>46.36156967069689</v>
+        <v>52.24939561255224</v>
       </c>
       <c r="G25">
-        <v>2.087723953247848</v>
+        <v>3.747159645457362</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.084701471178914</v>
+        <v>10.61469753668083</v>
       </c>
       <c r="K25">
-        <v>24.77577254731455</v>
+        <v>22.41363831236709</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.64865700885883</v>
+        <v>22.01308248625694</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_227/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_227/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.846393942920296</v>
+        <v>7.248744091242173</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.301539641929957</v>
+        <v>2.832905391827831</v>
       </c>
       <c r="E2">
-        <v>12.08062543287042</v>
+        <v>8.872696292749628</v>
       </c>
       <c r="F2">
-        <v>51.94936872646886</v>
+        <v>43.91268513073322</v>
       </c>
       <c r="G2">
-        <v>3.753220566446671</v>
+        <v>2.106127892202937</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.62410618641181</v>
+        <v>6.884790703279127</v>
       </c>
       <c r="K2">
-        <v>22.00535953010879</v>
+        <v>22.60659739302546</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>22.09022614495332</v>
+        <v>14.93528099550815</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.778037910281712</v>
+        <v>6.889147394550524</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.302320742851191</v>
+        <v>2.726223263666775</v>
       </c>
       <c r="E3">
-        <v>12.0588024646656</v>
+        <v>8.51541672974243</v>
       </c>
       <c r="F3">
-        <v>51.77238289265132</v>
+        <v>42.29016971940803</v>
       </c>
       <c r="G3">
-        <v>3.757604127648492</v>
+        <v>2.118845790179747</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.63435391269296</v>
+        <v>6.758733636165008</v>
       </c>
       <c r="K3">
-        <v>21.7379681992359</v>
+        <v>21.21449548079136</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.14649415479193</v>
+        <v>15.13870483001455</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.737673882527902</v>
+        <v>6.662793467154472</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.30357668652882</v>
+        <v>2.659887114466602</v>
       </c>
       <c r="E4">
-        <v>12.04810920929585</v>
+        <v>8.296520202577701</v>
       </c>
       <c r="F4">
-        <v>51.67682606321051</v>
+        <v>41.31282116260566</v>
       </c>
       <c r="G4">
-        <v>3.76043281157938</v>
+        <v>2.126804337435378</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.64255097331307</v>
+        <v>6.685785505854777</v>
       </c>
       <c r="K4">
-        <v>21.57887887888087</v>
+        <v>20.33595256009569</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.18301140341903</v>
+        <v>15.2679995244718</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.721646691400457</v>
+        <v>6.569272430942632</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.304284450167593</v>
+        <v>2.632679837613765</v>
       </c>
       <c r="E5">
-        <v>12.0444342314277</v>
+        <v>8.207518219025777</v>
       </c>
       <c r="F5">
-        <v>51.64119857604678</v>
+        <v>40.91945214871364</v>
       </c>
       <c r="G5">
-        <v>3.761620155589489</v>
+        <v>2.130088976065237</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.64636963171163</v>
+        <v>6.657151440546842</v>
       </c>
       <c r="K5">
-        <v>21.51540260356422</v>
+        <v>19.9721373254559</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.19838765909616</v>
+        <v>15.32177667600672</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.719011338292184</v>
+        <v>6.553669894890883</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.304413829629319</v>
+        <v>2.628152642423057</v>
       </c>
       <c r="E6">
-        <v>12.0438652832399</v>
+        <v>8.192754251430618</v>
       </c>
       <c r="F6">
-        <v>51.63548310337324</v>
+        <v>40.85443556530806</v>
       </c>
       <c r="G6">
-        <v>3.761819409044581</v>
+        <v>2.130636997537401</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.64703258131434</v>
+        <v>6.652462026808272</v>
       </c>
       <c r="K6">
-        <v>21.50494629041052</v>
+        <v>19.91138272830488</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.20097078840556</v>
+        <v>15.33077168626754</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.737456005241769</v>
+        <v>6.661537220644186</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.303585437308387</v>
+        <v>2.659520845828813</v>
       </c>
       <c r="E7">
-        <v>12.04805688099631</v>
+        <v>8.29531896233712</v>
       </c>
       <c r="F7">
-        <v>51.67633214872415</v>
+        <v>41.30749592953661</v>
       </c>
       <c r="G7">
-        <v>3.760448684104177</v>
+        <v>2.12684846252102</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.64260053754389</v>
+        <v>6.685394946012186</v>
       </c>
       <c r="K7">
-        <v>21.57801723836799</v>
+        <v>20.3310692069223</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.18321676784039</v>
+        <v>15.26872039259447</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.822501967700873</v>
+        <v>7.125973549997099</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.3016482923838</v>
+        <v>2.796313529043214</v>
       </c>
       <c r="E8">
-        <v>12.07254065942579</v>
+        <v>8.749451176758978</v>
       </c>
       <c r="F8">
-        <v>51.88563274813158</v>
+        <v>43.34940181681773</v>
       </c>
       <c r="G8">
-        <v>3.754703636826991</v>
+        <v>2.110484364843228</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.62724383780338</v>
+        <v>6.840385952375877</v>
       </c>
       <c r="K8">
-        <v>21.91215185079978</v>
+        <v>22.1316166383536</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.1092189154784</v>
+        <v>15.00449927423385</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.001225602263949</v>
+        <v>7.988485233430236</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.303975494583981</v>
+        <v>3.056698885676846</v>
       </c>
       <c r="E9">
-        <v>12.14190808251408</v>
+        <v>9.641168691282409</v>
       </c>
       <c r="F9">
-        <v>52.39926709205334</v>
+        <v>47.49993936388538</v>
       </c>
       <c r="G9">
-        <v>3.744519415204079</v>
+        <v>2.079388965815997</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.61227264386062</v>
+        <v>7.180962173447054</v>
       </c>
       <c r="K9">
-        <v>22.60439249953157</v>
+        <v>25.77530536988955</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.97971887317831</v>
+        <v>14.52215872562127</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.138703665356914</v>
+        <v>8.638514907804739</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.309371860153774</v>
+        <v>3.241934050554763</v>
       </c>
       <c r="E10">
-        <v>12.20569992693699</v>
+        <v>10.29514984526943</v>
       </c>
       <c r="F10">
-        <v>52.83815285714228</v>
+        <v>50.64103645682888</v>
       </c>
       <c r="G10">
-        <v>3.737687454698942</v>
+        <v>2.056842122103165</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.61053905229597</v>
+        <v>7.45569619207182</v>
       </c>
       <c r="K10">
-        <v>23.13087411600136</v>
+        <v>28.3923300168206</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.89407749968791</v>
+        <v>14.19140085081191</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.202339912286906</v>
+        <v>8.957479619595201</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.312616015878035</v>
+        <v>3.324735508962756</v>
       </c>
       <c r="E11">
-        <v>12.23745359240382</v>
+        <v>10.59252627732961</v>
       </c>
       <c r="F11">
-        <v>53.05079448607989</v>
+        <v>52.09291374311762</v>
       </c>
       <c r="G11">
-        <v>3.734718693310946</v>
+        <v>2.046568459039355</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.61176715497323</v>
+        <v>7.586624183503273</v>
       </c>
       <c r="K11">
-        <v>23.37325792008862</v>
+        <v>29.54566331722744</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.85717796369033</v>
+        <v>14.04663966661455</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.226574075508813</v>
+        <v>9.076035459001719</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.313956938535195</v>
+        <v>3.355875808558757</v>
       </c>
       <c r="E12">
-        <v>12.24986573550107</v>
+        <v>10.70516463847465</v>
       </c>
       <c r="F12">
-        <v>53.13314654039295</v>
+        <v>52.64645300981435</v>
       </c>
       <c r="G12">
-        <v>3.733614356718241</v>
+        <v>2.04266758770885</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.61252232986145</v>
+        <v>7.637124927308826</v>
       </c>
       <c r="K12">
-        <v>23.46537256341244</v>
+        <v>29.97755053421998</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.84350112922971</v>
+        <v>13.9927089609323</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.221349082366606</v>
+        <v>9.050600506316538</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.313663164105209</v>
+        <v>3.34917874042172</v>
       </c>
       <c r="E13">
-        <v>12.24717540754302</v>
+        <v>10.68090360524418</v>
       </c>
       <c r="F13">
-        <v>53.11532984647588</v>
+        <v>52.5270628701769</v>
       </c>
       <c r="G13">
-        <v>3.733851313882477</v>
+        <v>2.043508316740604</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.61234678593677</v>
+        <v>7.626206510417484</v>
       </c>
       <c r="K13">
-        <v>23.44552074087472</v>
+        <v>29.88474314307112</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.84643350361039</v>
+        <v>14.00428318950375</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.204331057559328</v>
+        <v>8.967277607069668</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.312724087440057</v>
+        <v>3.327301746814765</v>
       </c>
       <c r="E14">
-        <v>12.23846700974578</v>
+        <v>10.60179215402723</v>
       </c>
       <c r="F14">
-        <v>53.05753321139684</v>
+        <v>52.13837551763786</v>
       </c>
       <c r="G14">
-        <v>3.734627441462395</v>
+        <v>2.046247792089032</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.61182346907395</v>
+        <v>7.590760018593655</v>
       </c>
       <c r="K14">
-        <v>23.38083013765049</v>
+        <v>29.58128914397977</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.85604682484821</v>
+        <v>14.04218452790775</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.193924171410412</v>
+        <v>8.915951419444221</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.312163484970449</v>
+        <v>3.313873464160844</v>
       </c>
       <c r="E15">
-        <v>12.23318318512904</v>
+        <v>10.55333972361163</v>
       </c>
       <c r="F15">
-        <v>53.02236812329119</v>
+        <v>51.90079719085156</v>
       </c>
       <c r="G15">
-        <v>3.735105425440686</v>
+        <v>2.047924178269231</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.61154070553976</v>
+        <v>7.569170185309572</v>
       </c>
       <c r="K15">
-        <v>23.34124561505334</v>
+        <v>29.39479845691896</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.86197384210299</v>
+        <v>14.06551801805818</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.134565144778747</v>
+        <v>8.617354625398137</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.309175639739943</v>
+        <v>3.236492810344475</v>
       </c>
       <c r="E16">
-        <v>12.20367931703229</v>
+        <v>10.27571632542949</v>
       </c>
       <c r="F16">
-        <v>52.82451439483259</v>
+        <v>50.54664881660151</v>
       </c>
       <c r="G16">
-        <v>3.737884258115799</v>
+        <v>2.057512531303167</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.61049938767161</v>
+        <v>7.447264738707352</v>
       </c>
       <c r="K16">
-        <v>23.1150844698678</v>
+        <v>28.31624911211859</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.89653041568191</v>
+        <v>14.20098145197023</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.098416146464727</v>
+        <v>8.430141690629874</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.307544112599627</v>
+        <v>3.188642334756524</v>
       </c>
       <c r="E17">
-        <v>12.18627626917701</v>
+        <v>10.10539461424972</v>
       </c>
       <c r="F17">
-        <v>52.70643823342078</v>
+        <v>49.72206568845144</v>
       </c>
       <c r="G17">
-        <v>3.739624518613049</v>
+        <v>2.063385002471462</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.61037723106682</v>
+        <v>7.374045781928492</v>
       </c>
       <c r="K17">
-        <v>22.9770195747848</v>
+        <v>27.64539849611939</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.91825722456613</v>
+        <v>14.28558714846471</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.077728711783346</v>
+        <v>8.327560354940768</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.306680063783091</v>
+        <v>3.160982170963759</v>
       </c>
       <c r="E18">
-        <v>12.17652423763012</v>
+        <v>10.00741388127828</v>
       </c>
       <c r="F18">
-        <v>52.63974920019425</v>
+        <v>49.24991350577692</v>
       </c>
       <c r="G18">
-        <v>3.740638574399422</v>
+        <v>2.066761640117025</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.61049679511676</v>
+        <v>7.332487530942183</v>
       </c>
       <c r="K18">
-        <v>22.89788491079437</v>
+        <v>27.25601115713601</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.93094771890167</v>
+        <v>14.33478192110328</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.070742897379574</v>
+        <v>8.297163822198439</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.306400315275601</v>
+        <v>3.151593484961633</v>
       </c>
       <c r="E19">
-        <v>12.17326679307799</v>
+        <v>9.974235625405587</v>
       </c>
       <c r="F19">
-        <v>52.61738099985052</v>
+        <v>49.09040551973276</v>
       </c>
       <c r="G19">
-        <v>3.740984171094016</v>
+        <v>2.067904955207579</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.61056987427026</v>
+        <v>7.318510242454315</v>
       </c>
       <c r="K19">
-        <v>22.8711414048685</v>
+        <v>27.12355109172429</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.93527778600107</v>
+        <v>14.35152797983765</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.102253605856594</v>
+        <v>8.450225713668287</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.307710102810117</v>
+        <v>3.193750418422251</v>
       </c>
       <c r="E20">
-        <v>12.18810221615754</v>
+        <v>10.1235270956186</v>
       </c>
       <c r="F20">
-        <v>52.71888110292392</v>
+        <v>49.80962129087247</v>
       </c>
       <c r="G20">
-        <v>3.739437909702349</v>
+        <v>2.062760030926546</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.6103705873649</v>
+        <v>7.381782159841856</v>
       </c>
       <c r="K20">
-        <v>22.99168881355248</v>
+        <v>27.71717393094176</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.91592430950401</v>
+        <v>14.27652525225525</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.209326128783257</v>
+        <v>8.991811576174079</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.312996874488801</v>
+        <v>3.333733382100239</v>
       </c>
       <c r="E21">
-        <v>12.24101440106839</v>
+        <v>10.62502780521587</v>
       </c>
       <c r="F21">
-        <v>53.07446016321287</v>
+        <v>52.25243635185651</v>
       </c>
       <c r="G21">
-        <v>3.734398935840836</v>
+        <v>2.045443495861709</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.61196930593362</v>
+        <v>7.60114591390032</v>
       </c>
       <c r="K21">
-        <v>23.39982308057626</v>
+        <v>29.67054839405587</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.85321511898557</v>
+        <v>14.03102728659745</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.280089977094025</v>
+        <v>9.332806855789723</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.31710688456004</v>
+        <v>3.423971084369605</v>
       </c>
       <c r="E22">
-        <v>12.27785258034132</v>
+        <v>10.95299851184092</v>
       </c>
       <c r="F22">
-        <v>53.31749379475459</v>
+        <v>53.87112809858231</v>
       </c>
       <c r="G22">
-        <v>3.731221422456642</v>
+        <v>2.034060482946124</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.61470515239826</v>
+        <v>7.749924272375336</v>
       </c>
       <c r="K22">
-        <v>23.66844206429492</v>
+        <v>30.91918221618806</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.81395770566842</v>
+        <v>13.87579581046201</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.242257097457797</v>
+        <v>9.15197682569203</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.314853749217458</v>
+        <v>3.375923519869606</v>
       </c>
       <c r="E23">
-        <v>12.25798678394567</v>
+        <v>10.77791109891796</v>
       </c>
       <c r="F23">
-        <v>53.18682206891645</v>
+        <v>53.00497797617975</v>
       </c>
       <c r="G23">
-        <v>3.732906775815116</v>
+        <v>2.040144815686756</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.61309025125156</v>
+        <v>7.669997454256618</v>
       </c>
       <c r="K23">
-        <v>23.52493109218939</v>
+        <v>30.25514165710167</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.83475208910702</v>
+        <v>13.95814167186494</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.100518392623407</v>
+        <v>8.441150556224839</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.307634828254923</v>
+        <v>3.191441521472266</v>
       </c>
       <c r="E24">
-        <v>12.18727591641723</v>
+        <v>10.11532959227822</v>
       </c>
       <c r="F24">
-        <v>52.71325195804916</v>
+        <v>49.77003147951351</v>
       </c>
       <c r="G24">
-        <v>3.739522233353757</v>
+        <v>2.063042578493684</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.61037299982862</v>
+        <v>7.378282877650917</v>
       </c>
       <c r="K24">
-        <v>22.98505609452384</v>
+        <v>27.68473583720816</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.91697839913085</v>
+        <v>14.28062041537628</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.951710099707321</v>
+        <v>7.760814877608096</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.302694831651428</v>
+        <v>2.987252953859299</v>
       </c>
       <c r="E25">
-        <v>12.12087361019694</v>
+        <v>9.400089877718386</v>
       </c>
       <c r="F25">
-        <v>52.24939561255224</v>
+        <v>46.36156967069687</v>
       </c>
       <c r="G25">
-        <v>3.747159645457362</v>
+        <v>2.087723953247841</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.61469753668083</v>
+        <v>7.084701471178831</v>
       </c>
       <c r="K25">
-        <v>22.41363831236709</v>
+        <v>24.7757725473146</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>22.01308248625694</v>
+        <v>14.6486570088588</v>
       </c>
       <c r="O25">
         <v>0</v>
